--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/22_Çanakkale_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/22_Çanakkale_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B34F46-39FC-4F8F-8ACC-9E71ADF052E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FB5728-14A1-4296-A28C-78344405D7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="648" xr2:uid="{C273CD64-CD44-4B5D-B0DC-8DA915224073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{8CCFE6B4-2008-4F81-9FBA-D1196C79D4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{23B7C5DD-E91F-4E19-8474-10C014B7DCA4}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3540D752-5FF1-41B3-A459-4B12463A5A8D}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DB77CE25-0969-4B80-A2BE-42C7B6BE7DED}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{104FE23F-7488-4846-8D56-48C514BCF757}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B44A61DF-A1C8-4D52-A392-763214484E26}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{17BE110D-0DE9-476C-A46A-2273F54CD0AA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4FD4EDC4-1E1C-4F75-8A77-4B93CB1C36BC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{595CCE30-8D77-48BB-8290-F5E535AE0AEE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5900E96C-F05E-4211-92E9-AC09432D1443}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BCE7D461-86A9-4D89-9D29-97E9F9EC2016}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0F3495E0-965C-4E3A-8A9F-20DF63D5B28F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{70AE3055-E3D3-4EFF-8EA9-EB5527490CBE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5F657594-3682-4D86-8AA9-FE6D0844350B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{86165A42-9A33-4C0F-ABDE-B372D78168AE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57E9A88-28C9-4021-84B4-A2B49B4AE648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C072F4-6804-4669-ACB4-D1466694BA99}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2636,17 +2636,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6A6C332-66F4-4FA7-B12C-72134CCA4C80}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7020BD23-2DC1-4EAA-A7AF-5F9833518B27}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C22A8D0C-ED7D-4A77-834E-442C236CF96C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92D5E5D3-2870-4B6B-AF2F-5C02E2785747}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5B0035F-584F-4E53-AEA2-0BCD40025F4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43BC58E9-A2EC-4FF5-96F3-0D823DC12C99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0059F89E-A354-46CF-84FD-28CF286CCCCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{812A842F-0176-428A-9B72-3B34544061BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{62AA679F-5C51-463B-A883-67843F194263}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09FC889C-72BE-42BD-8FA7-A3F85D314C95}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57D24191-0023-45F1-B4E2-DC2BA758A861}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CB7F086-3A8C-49B2-85B8-701488389C40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C97DE6A-94F8-46E8-92B5-9D047A9FD2CC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D92AFE74-5865-48C0-A73C-F5A6D783EFB4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7369400-387A-4ABE-A714-91BD23312273}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6E42BFA-E1E8-474B-9C6C-7F668BBFB1C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CC745E3-5A76-4130-A66A-BE37536B5769}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72BE2617-6506-4D8A-A52C-3A1A809108EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AE099FD-7D78-4A96-8C2E-D3494A0AF581}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00089F11-9E61-42F5-9CAA-89A1F73CC2DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90BE6ECC-BB15-45C5-AFAD-4A60F8532AFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D012426-3F4A-4DFC-9966-EE65BDEF316D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2659,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1645490-538C-4E70-9A83-52A459393D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDF9D6E-20C6-4B4A-9941-019FD8A10A9B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3937,17 +3937,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FDB716B-29D5-485A-BC05-0E5D421723AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B280C8D-349C-4B4A-B66D-C614209468D2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CE78477-CF50-45F1-B1CF-0F681E8637CA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BAA8DC5-CD4F-4B5A-B64E-24822FDB0B35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B934B3D-61CE-48A9-BC59-0256F7C08168}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68204BC2-8061-4531-9336-D91C5781C0C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAFB9BA6-4144-4274-857E-8A179CF24E11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96E5A5B2-37DD-43E7-813B-98E3BFAB7CD8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1DB8EA91-8FBD-42FA-8000-D48011E9CBD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{517D7112-3222-4A0D-9014-99E2F2C37FDB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FF62255-A22B-4515-8B03-6F10961A3287}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D6F0268-0E8A-4062-9442-96ED42E43839}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEFBB289-339E-46BE-9B6D-ADC13448DDD0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F40E993-33C9-49C3-968D-D624D485E1D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16813031-30DA-44CB-B9E6-E0F14E342E78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA9C3C8C-C880-40A9-A321-B97DDDEA88B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3913766D-274F-44A7-8737-C6BCF98C5549}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35E79CF2-A873-4060-8BA2-049EC69499E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{243813E0-30C2-471A-B943-C1B54B6E1DA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C2EFF62A-2989-4B13-8172-143528D57B92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{41B2AE65-3258-4B39-9E54-0398207483DC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11AC66E3-E339-4BC8-83FA-382B3EF143CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3960,7 +3960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C82934-D4A9-49B9-AB8F-C92CC76EDDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150D61C1-4B8A-47CC-A890-93019CF1452A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5228,17 +5228,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{949CF33C-E341-494D-B93A-7062C1899306}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF3ED3D6-EDD3-4137-A112-962AC7A59FF0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C9245A4-DC45-46F8-8B72-FC29E9B8AF43}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72B72B43-3765-4F7B-ABEE-41A16B2477C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5B15EC9-ED4A-4022-A255-7AD1EF38959E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{429FFBD0-109C-4369-B029-9C35944AE254}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88861D0C-64F4-4AE1-8726-8AB8CCA8BB1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F6740E2-C01B-4017-8592-8B1C1173CF54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{201A3B20-2E84-4E1D-95BB-E23A7C94DFD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23CC7104-27F4-49AA-83BC-C3CAD218ACA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDCE36B2-B929-4909-943B-9D7F2927BE2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09256671-445D-43BD-A588-CB0F25CC6C5F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C823364-560A-4439-A356-4B79F135A824}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{02C7FA22-F82B-460B-BFF8-A2B0C40DFA0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51EB4FA9-633C-4B09-B7CD-5B7D8E308D6B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17D0C146-5BB5-4BE1-BA63-273B0CA89B49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1AA6AB40-7AC7-4F56-AFBB-CE77024A13B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F52E5839-77CA-4972-9087-27FBE9EE3580}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E32FEE1-1C89-48E9-A009-4E9E781B1E25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C02D4EF5-334C-4B59-9A52-8958698B1A2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{983149E3-1E5A-4331-B5C3-E3B6B89BD88A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EDCB714-86C4-4D40-8524-FF58BB8F7CBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5251,7 +5251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DE9F8-35ED-46AE-8129-676A4E7C32E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC94B0-0ACF-4E6A-AD13-6A2030B34891}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6513,17 +6513,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A922499D-5A13-4CF9-9AF4-A33929165F6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EA2323A-679F-45B8-A3F6-DA8FCEF342C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F676776-EDF4-4B4B-9C8A-8DA59AB2111B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B01D3647-DAE7-4E8E-8D21-E58C5B9A5044}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D48E3C9-3564-4181-A9B1-F8A5C02B4B76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4416897-240C-488A-B0C1-27587729B9FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94AC4828-F0B5-4CB1-BDCE-E1CE7BA1217F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C97BED9C-1B15-4D36-84F0-0A1DBD7CD6DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C2DDEDED-E694-45A6-A17B-2FE868422880}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90C8E093-9547-4DC8-B4DD-1CFD0B44E44E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EE025F0-C7BD-4462-968B-EB98B3AC0E70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F11E6519-3C38-4B71-A034-A628A5DAA7A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A4E5D1D-127A-4F38-BAB5-AA180779FC4F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52C04B29-BB63-4640-8ADB-5340211D5934}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72BA662E-B617-4166-A459-AD67BB990E69}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E897840D-3613-4BD8-80B5-EFBF9306CCA6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{372BDEA7-EB99-4B34-8712-99AFC6A095A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07581D57-E8FD-4064-83B5-499C1D246F40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{251BDA60-5931-4BC2-A590-D78833AB7E7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0DDFF9AF-885F-435C-80A0-838BC2597361}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4BBACE28-996E-4559-BE21-5D256B650A1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3719777-D1E9-4B74-93DC-DED4BC65EE63}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6536,7 +6536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B251730-3B34-4E74-9D44-F1BA6B1410B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B854BF7-A76E-41F1-ADEE-6350AAF6CCB5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7817,17 +7817,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1310FD4-6CDB-42B7-A087-E4E43D892D6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F55C9502-3768-4C43-8E1F-7ED48C583CF0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE02DFA4-6B04-406E-A8AE-8D721E63CEF3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CB02E90-9A38-4EE4-83DC-032634EDB76C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0C5AF16-06A3-4F4A-AE2D-803F5D698D1C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A88387DC-5F3A-468D-926B-B263BD1C42E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DAD0FCE-558A-4F2C-BD20-59169289DC58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF54CFCC-63D2-44E3-ACFD-B14BFB9984F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{34A9F6BF-821C-4A7C-84A7-A4C2A297E61E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23502EE2-AEEF-4F96-94DF-6B0804A31A83}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5616127C-CA6B-40C9-91A9-584B850C9284}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FC7A919-98DF-4383-9778-07BC180294DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1A0DEDB-4AC2-45B9-80AB-AA60D9F7F4BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{822E7C32-6476-4D8F-8113-AEEE2D284F6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C3D3930-9777-4CB7-AB39-670263AA3DDD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B8730C5-7618-431B-963E-2B8CF83D24E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C923B5D2-3DEE-4868-83CA-274664D6F14C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8492292-987D-462B-9FE1-4EF30443D9F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{625EB9F3-D614-45F3-B073-6C07CCA23E01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EDFA0613-2260-4278-9ACB-91F90583ABB3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1FD71672-628C-4E60-82FA-43D06BCA9CA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1971BB99-20B6-4DE5-A664-86AC9E427D3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7840,7 +7840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0845FA9-21FB-498E-8B29-1A910C3BEBBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AD5194-CBB2-4900-92C7-9730AED0A110}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9121,17 +9121,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E95F0623-1689-4AE1-8FBF-B23A07466CF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98B547AC-E5DE-4254-87E1-D040E2399F4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B6C84A8-B41F-4AC8-B9A0-DB1CD45328B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD015E2F-F91B-4022-9DA7-5AB873B15124}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92B3FB25-45D0-4ED6-ABA8-A5471C76121D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B1D8353-09A4-4D76-A111-5ED7D9EB7294}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11259552-5705-4A2F-BA00-AC7D67D878D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15476205-B2C1-4327-B8B9-B54DC69B7A1C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F422B972-209E-469C-BDEE-B89B7E59827F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{90247F38-03D9-49D8-8F7D-963DD12410BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FC85ECC-7356-4AE6-9CB9-0304C4F3FD0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B865E8FD-CEFC-47D2-B3CF-3A91EE518682}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3223CB6-0817-447A-9AD3-3F9231143A23}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58125D54-4A23-4AEB-A038-327A40732BDF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BAE477A-0CF3-49BC-8405-6F13E3967178}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D34859D5-4EDD-48E9-9C64-CF07B77D41BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B303A4B-8E6B-4D8D-AF14-FC3E6850F866}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C9FEA06-759F-4122-8BC2-A042B58E3CB6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22966F77-F5A1-4720-8B76-0DA23F364330}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8BD4096C-D45D-465A-83A2-A8DD1BD278FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ED247CDB-C7AF-4863-8FDC-0D8ADA36DE34}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6A88F55-9B27-483D-A374-485948DF2F0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9144,7 +9144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC72413-6EFB-4432-AAAE-101A7EBFAD3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496CDAD3-1293-4395-993E-E2F13C6F648B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10425,17 +10425,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B371F05B-17CF-4064-8F11-67BD42BC55AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0ED5E43-266D-4B51-B9BA-40057E1C9677}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57CACE22-B2B2-41DC-A632-9DB374FEC627}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91473B9A-7CBD-4909-B5B5-C673276A1EB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D07317A2-D9B9-4092-9283-A5A23F91A4D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05A5E540-82F4-48F7-BC90-E49AA1541EF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D31BCF18-878F-45B4-BE63-FA2247A855FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DAB1B87-8AE5-4A84-85D6-F6167029006F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B30E35F5-745C-47C4-821F-E84F52D0B180}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{100B1C08-B02F-4FC9-A3A1-954C10B28619}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD14EAFD-A2BB-4CC6-8B71-4EBE82EC9D75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26D40F6E-6DAC-45BB-97C6-409406025564}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57036B6D-89EE-4CC9-88AD-786D19004BDA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A33194F0-C1A3-49DE-AD37-C7EE00CC52AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2C29D90-2EAF-4A3A-B334-8D965702E0E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{894D221C-94CD-4EEB-8F18-4196A5A23A60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B719945-07D2-41BD-A63B-E7A2321EF75D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08020F34-7C6A-4BAC-9517-AB316392C1C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1479C72-58C9-42D6-9B20-536461C18E0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{14512DED-445C-444A-AD8D-D6E3F58CD9F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{596FB99B-AA50-47DB-97DF-152A0BCA3432}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62069313-1289-48E7-AADA-F8C03D318097}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10448,7 +10448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668CEEC6-2C6C-4DE2-9C39-9C94AD0783D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9B639-B3E2-4FE2-BBC9-0CAA776843C4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11729,17 +11729,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F2A4E13-5EB6-4D2E-BF6C-613A7FA49FC2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B63BA64A-52D9-431F-9076-BB51D2D9D75F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{317F12F7-08AE-4A08-A080-B3B8580887BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58E575E6-B174-4D35-8EA1-5CB5D308301B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A12A836-DE93-4F14-BD40-ECCFB149E3E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA67F8AC-147C-4AC7-BBB3-DA475A0CC5CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35F36339-FA76-491E-8AD8-024660CC1E5B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45F82E00-E75C-4851-B321-41D835D62C95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D366A534-0900-47A0-8D65-1DB2B4AB463A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3CCC9779-186B-4ABD-8920-F76CB9192BBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{388456ED-FC1B-4177-8DD7-62D6B062FB8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0D3AD92-AF7E-427A-82C6-99E1616F592C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA0D75A2-B0F3-4027-8AB9-E3DD6D975508}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{101D0248-9A3C-42C7-8501-3450685EDA83}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B40E833-DBD3-4091-9D7F-D26BA9D72020}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AA0C4E2-9399-43B3-A59B-8C1800E3CC51}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49AB2DAF-73C6-40AB-988D-20BBC043FAC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D34C978F-BCFF-4670-8713-B8EC88C0BD34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E352358B-645D-4D9D-B1D1-40631C097E60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{931289C4-FD3C-47EE-B3D8-94C55D956222}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F7C955DE-14C0-4821-A409-8CB8AAA634EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBB88AA3-A480-4B25-96F6-F8266C720D14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11752,7 +11752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A49EB8-66FC-4A00-9EA9-C3FBE148EC38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EC3520-C1D4-47B7-8659-4730D95967DE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13033,17 +13033,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7FF6570-23F3-4BC2-BD6C-9109923FF713}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{002C1416-BC66-4C6F-B086-463773A38D3B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7977263-B870-43A9-B47A-2F1A6189302C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCD7A033-D500-4278-A7AA-53AAD1A8FC7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E5D98E3-1EFE-4255-BD3D-967E7952F2E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{053572C9-A0C1-4893-B452-19DDBAD93045}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB5C1946-546F-486D-A1A1-86A4F97712A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D6F1D96-75B0-445E-84A2-2CC6475B2F93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A450CC3F-94F5-4F10-AA1D-DB2C10DC8890}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{81FECD32-9ADB-408C-8870-637CCD520D36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B17EACA7-FD04-4738-9B28-558ADAA08348}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53E43772-375C-456C-BD17-09E2D41B2290}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B49B36BE-27E5-468C-9F37-76961B765035}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE071272-86F7-432A-ACF6-7F9F08222C8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40C95E88-4CD0-4498-B98B-5F9E9D4F2056}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D3E680F-67BD-41FC-8555-95C7DEFD55A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{217B6726-3F71-4235-8500-8E9D83723CB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE93583E-2F5D-4F3D-B2AE-74DB3D68EEE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34A01B53-27AF-4C4C-805E-BE6CBC7D31DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BA0DFAA9-39A2-40DC-97A4-CA694E225FDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{477FD3B7-5814-4D5B-B74E-44ADE5480FA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82A4A896-370A-4769-B831-EA139128E2E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13056,7 +13056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488B5211-3C33-4CAC-A0E0-18BF417F55D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE6A4D9-AFAD-495F-99DE-3A3FEB31F290}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14333,17 +14333,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1260168E-5061-47E3-B6D7-75120BCD7CA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99D44964-E0E8-4502-8DD6-709D32DA9862}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A31416F7-E15B-4998-A693-F72537CB9D4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F692EA0F-50AA-45DB-B43B-909841A37EFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA7C3518-DFD2-42A4-A94E-CDB84C9D58F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68440606-F1D1-4874-8391-6E5CB8954522}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A474EC01-432C-4579-9508-CD43BEAA2C1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92118927-0830-426F-8D3D-5C99CD3377FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{54D06C15-615B-4AC8-A079-136EF34EF9D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A687CDD7-7A67-417C-9CF9-6AFBE1ED2C90}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE3611F2-7C53-4D22-8495-F2F5560FACD0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8494BBAE-58A7-4DC5-A570-8A05CC9BBE32}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD60B0D0-E853-4F19-AAC4-D1D25E89A95A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69927C61-0F6F-4BDA-9BEA-CB592091CC32}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7978D8C8-9576-4002-87AC-5A8473BE47B3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{352D79E3-2565-4E50-BDEA-C538185DE1E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6635E291-326D-4432-9A4D-508C86A9FE67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D9AD03C-E0B5-4978-A538-E3238265FDB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AD58BA1-118B-4F24-85D4-5FA6C5BDCC09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6C507451-2E6B-41A5-9D3C-5B7C07415275}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{532F7BAE-6080-403B-B9B4-85171C62B8C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFDC314A-0AF4-46BE-AFBA-912F9B5BCF0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14356,7 +14356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848B5F36-D8C2-40D4-A71B-2F7C6B6E3AA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E2541A-8C87-4B8D-AFF1-8336EA97C8F9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15634,17 +15634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1BE0833-0A42-41C0-B5AE-62B571D31144}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{578DCC09-7DB4-4729-AA22-B4AC1603BC34}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9877DA55-F155-40B8-9F48-41603A922F63}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA538723-E641-4370-BE21-C2B495CB6A5F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD6FD2A6-DB5A-4BDA-9097-6AC5FB126BD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88074586-55E6-44F8-B5D0-F723C2439134}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9ADE1882-2A3A-478C-B7B1-1E7BCA8612A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D413D8E2-7825-45A5-AC33-30C3822445FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{62722B56-AB07-4669-A8D3-6FCF304834AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{749BE4A6-057C-49E5-A9E9-08F40249F5CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{445BA142-FB62-424C-8F15-6982C62D33AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D8FD345-E742-4DB6-AC7A-050F9FB59F8A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{046D47AC-E197-4B85-BA1B-8D2F7BB385F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0A936F3-F28F-4D05-9EC1-6DF1F5A541E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC539500-CA8D-4FB7-8CC5-FD1B3BB919B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5C30DFF-D437-4AB9-9DE5-57DA18160F2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB3BB4A2-C7ED-417C-80A7-5569BCD16D3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F9A18A2-0D6E-4A70-9D36-5344B146989B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F993F67-D851-4A82-BA90-DC86BDAA30E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B89545DF-D343-436C-B4D3-42A4848FC230}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4D3FE921-4B30-434E-919F-AA17AA31183C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A0E7091-485D-44EA-B716-A16B9573F25E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15657,7 +15657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C97CF8E-EDB6-432C-ACCD-C9911E74AA7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052DE1E-FAB8-43D4-8F7A-E2BE894EFBB9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16935,17 +16935,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B35AB405-F401-4365-95D4-D33CA4F87284}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B973AB0F-6289-4CC5-9DB0-419A6FD78D75}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A3EB20B1-5FB1-4EE5-BF25-E7F1EDAC46CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E05C365B-F72F-4F8F-AF6A-92B5B42A0B04}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{656A7FD8-EF30-4C3D-A24C-07EDE304514C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09EAC246-A9B0-475A-B187-1A8B1428F854}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99DFC269-04DE-4365-839C-35B3E1EA6344}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBA93474-C1B2-4015-8AC4-3FD02D241E90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5ED49F24-CF74-4BC4-84BE-CFFF1299C671}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E249FC06-F902-4691-BABE-187F52A7648F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB302D2E-ECE6-4A82-980D-79E3AF6FE694}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A60130B5-02BF-4718-90ED-F44B93F7B9A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0930E31-6E38-45F7-BA80-72B9A91066CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EAC1481-29DC-43BC-9BA9-6D66AF3B9316}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E44C5302-CA21-4FD5-85CF-7DB89B6566BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93A09146-3DC4-4521-AFCE-71871D10AC50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1884671C-989B-402F-87FB-3C44E0E797E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C946475F-B181-4E08-8AD5-BBB03D2623F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BD0FFE5-357B-41BD-BF95-8FD5A2A2C0B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{83D6E8A1-E01C-4FF6-932A-401DE1DF1945}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{97DA2741-7737-4049-BF17-A1F709D021FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA5DE1D0-29B6-44B2-A186-AD8FA4D5D496}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
